--- a/pred_ohlcv/54_21/2020-01-20 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ELF ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-279440.3686937921</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-278922.3686937921</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-278922.3686937921</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-277704.1231937921</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-277709.7671937921</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-277709.7671937921</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-257709.7671937921</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-259022.0104937921</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-260255.8629937921</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-259880.2073937921</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-261173.4836937921</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-261036.8010868786</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-273583.6903868786</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-266972.9437868786</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-286180.5746868786</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-283236.1536868786</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-279195.6913868786</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-191069.3241868786</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-288956.1181868786</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-306501.0271868785</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-306726.4151868785</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-222796.8484868785</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-190325.6628868786</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-190318.6634868786</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-191727.6784868786</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-191727.6784868786</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-182490.0667868786</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-182490.0667868786</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-181633.0504868786</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-183219.6398868786</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-182997.6398868786</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-185508.6398868786</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-185776.4968868786</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-208089.7458868786</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-207978.7458868786</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-208912.6028868786</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-199655.6971868786</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-204566.7764868786</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-202592.0918868786</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-224916.5822868786</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-224805.5822868786</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-231779.6766868786</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-240405.5695868786</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-240516.5695868786</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-240936.2165868786</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-293534.5500868786</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-222084.3155868786</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-229593.8669868786</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-238024.0979868786</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-281454.3151868786</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-355624.2552868785</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-355644.2552868785</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-364530.4403868785</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-363641.8218868785</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-359050.4587868785</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-360970.5205868785</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-360130.8484868785</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-596040.3133868785</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-602969.2677868785</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-600223.5467868785</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-614348.3134868785</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-615515.7405868785</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-699826.0053868785</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ELF ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-279440.3686937921</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-278922.3686937921</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-278922.3686937921</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-277704.1231937921</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-277709.7671937921</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-277709.7671937921</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-257709.7671937921</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-259022.0104937921</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-260255.8629937921</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-259880.2073937921</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-261173.4836937921</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-261036.8010868786</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-273583.6903868786</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-266972.9437868786</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-286180.5746868786</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-283236.1536868786</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-279195.6913868786</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-191069.3241868786</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-265085.4894868786</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-288956.1181868786</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-306501.0271868785</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-306726.4151868785</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-222796.8484868785</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-190325.6628868786</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-191727.6784868786</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-191727.6784868786</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-182490.0667868786</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-181633.0504868786</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-182997.6398868786</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-185508.6398868786</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-185776.4968868786</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-208089.7458868786</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-207978.7458868786</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-208912.6028868786</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-199655.6971868786</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-204566.7764868786</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-202592.0918868786</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-224916.5822868786</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-224805.5822868786</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-231779.6766868786</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-240405.5695868786</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-240516.5695868786</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-229593.8669868786</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-355624.2552868785</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-355644.2552868785</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-364530.4403868785</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-363641.8218868785</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-359050.4587868785</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-360970.5205868785</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-360130.8484868785</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-596040.3133868785</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-653562.5914868785</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-653562.5914868785</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-632827.5914868785</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-601969.2677868785</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-606748.3134868785</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-614348.3134868785</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-615515.7405868785</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-699826.0053868785</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
